--- a/dev/input_data/input_shitai3.xlsx
+++ b/dev/input_data/input_shitai3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81CB609-7EE6-F74F-8267-4A897A2ABC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3E493-87D6-1C4B-8F7A-83FB123E0DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="560" windowWidth="25020" windowHeight="28120" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="24800" yWindow="560" windowWidth="25020" windowHeight="28120" activeTab="2" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E9A71-E1A2-2845-B4A9-990606FB2D91}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3763,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAC9B12-40B2-9A4C-94F4-5F3D5BCCC889}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dev/input_data/input_shitai3.xlsx
+++ b/dev/input_data/input_shitai3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PGmix/dev/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3E493-87D6-1C4B-8F7A-83FB123E0DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF57365-3BBA-E349-87FA-BC9B2DFA87E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="560" windowWidth="25020" windowHeight="28120" activeTab="2" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="24800" yWindow="560" windowWidth="25020" windowHeight="28120" activeTab="1" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -1472,9 +1472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E9A71-E1A2-2845-B4A9-990606FB2D91}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2728,75 +2730,409 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>-90</v>
+        <v>2.0057322557836912</v>
       </c>
       <c r="F63">
-        <v>-90</v>
+        <v>3.7896622875565247</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.60891260000000003</v>
       </c>
       <c r="F64">
-        <v>0.8</v>
+        <v>0.42288819999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>317</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>7.7779610304118009E-5</v>
+      </c>
+      <c r="F66">
+        <v>1.3584895610476526E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>0.91388999999999998</v>
+      </c>
+      <c r="F69">
+        <v>0.84040999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>0.76115279924402401</v>
+      </c>
+      <c r="F70">
+        <v>0.47861957249662501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>0.57969999999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.97809999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0.28191235034776613</v>
+      </c>
+      <c r="F75">
+        <v>1.7127883032948588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>1.1114299999999999</v>
+      </c>
+      <c r="F76">
+        <v>0.52984520000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" t="s">
+        <v>311</v>
+      </c>
+      <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80">
+        <v>-90</v>
+      </c>
+      <c r="F80">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>0.8</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82">
+        <v>24</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>318</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B83" t="s">
         <v>319</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D83" t="s">
         <v>320</v>
       </c>
-      <c r="E66">
+      <c r="E83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F66">
+      <c r="F83">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2807,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB4F449-9DC8-E74B-BCC1-554BB33610F9}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,53 +3173,53 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>2.0057322557836912</v>
+        <v>1.9821252509799663</v>
       </c>
       <c r="F2">
-        <v>3.7896622875565247</v>
+        <v>2.1988044398071436</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0.60891260000000003</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.42288819999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2897,33 +3233,33 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>7.7779610304118009E-5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.3584895610476526E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2937,93 +3273,93 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.57517975290440204</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.56516436606583209</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.91388999999999998</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.84040999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>0.76115279924402401</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.47861957249662501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>0.57969999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.97809999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3037,13 +3373,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -3057,13 +3393,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>255</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3074,53 +3413,53 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>0.28191235034776613</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.7127883032948588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>1.1114299999999999</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.52984520000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -3134,33 +3473,36 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1.7487708932531874</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.4661576472342777</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3171,33 +3513,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>1.9821252509799663</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2.1988044398071436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -3211,13 +3553,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -3231,33 +3573,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.4225509764590335</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.81710621651505744</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -3271,33 +3613,33 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>0.57517975290440204</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.56516436606583209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -3311,13 +3653,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -3331,16 +3673,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3351,16 +3690,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3371,16 +3707,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3391,16 +3724,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3411,346 +3741,18 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>1.7487708932531874</v>
-      </c>
-      <c r="F34">
-        <v>2.4661576472342777</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B38" t="s">
-        <v>278</v>
-      </c>
-      <c r="C38" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>0.4225509764590335</v>
-      </c>
-      <c r="F39">
-        <v>0.81710621651505744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>286</v>
-      </c>
-      <c r="B41" t="s">
-        <v>287</v>
-      </c>
-      <c r="C41" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" t="s">
-        <v>290</v>
-      </c>
-      <c r="C42" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>292</v>
-      </c>
-      <c r="B43" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" t="s">
-        <v>297</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>298</v>
-      </c>
-      <c r="B45" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B46" t="s">
-        <v>302</v>
-      </c>
-      <c r="C46" t="s">
-        <v>303</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" t="s">
-        <v>305</v>
-      </c>
-      <c r="C47" t="s">
-        <v>306</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" t="s">
-        <v>308</v>
-      </c>
-      <c r="C48" t="s">
-        <v>309</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
         <v>0</v>
       </c>
     </row>
@@ -3763,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAC9B12-40B2-9A4C-94F4-5F3D5BCCC889}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
